--- a/Saved_file/EM003/2026_12/sap_data.xlsx
+++ b/Saved_file/EM003/2026_12/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST8374</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23475359</v>
+        <v>27272009</v>
       </c>
       <c r="E2" t="n">
-        <v>5753348</v>
+        <v>5532889</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -551,20 +551,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST5820</t>
+          <t>CUST1564</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35924802</v>
+        <v>39300343</v>
       </c>
       <c r="E3" t="n">
-        <v>8690894</v>
+        <v>7365827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2241</t>
+          <t>CUST5239</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27458281</v>
+        <v>31166604</v>
       </c>
       <c r="E4" t="n">
-        <v>4533098</v>
+        <v>5602479</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST9165</t>
+          <t>CUST1386</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26142152</v>
+        <v>31102314</v>
       </c>
       <c r="E5" t="n">
-        <v>4720669</v>
+        <v>4847077</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST3917</t>
+          <t>CUST1580</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29420355</v>
+        <v>28392170</v>
       </c>
       <c r="E6" t="n">
-        <v>4769361</v>
+        <v>6162681</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1766</t>
+          <t>CUST4221</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30412309</v>
+        <v>32414489</v>
       </c>
       <c r="E7" t="n">
-        <v>5732012</v>
+        <v>5403996</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST2630</t>
+          <t>CUST7232</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32268094</v>
+        <v>28119778</v>
       </c>
       <c r="E8" t="n">
-        <v>6443510</v>
+        <v>6735101</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9165</t>
+          <t>CUST3785</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18234548</v>
+        <v>36769886</v>
       </c>
       <c r="E9" t="n">
-        <v>3942613</v>
+        <v>5544236</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST9038</t>
+          <t>CUST4221</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24737660</v>
+        <v>16424263</v>
       </c>
       <c r="E10" t="n">
-        <v>4269767</v>
+        <v>3795270</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2241</t>
+          <t>CUST3957</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17963891</v>
+        <v>35851926</v>
       </c>
       <c r="E11" t="n">
-        <v>4079891</v>
+        <v>7684257</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST8126</t>
+          <t>CUST6475</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26234251</v>
+        <v>25426871</v>
       </c>
       <c r="E12" t="n">
-        <v>4413552</v>
+        <v>4513236</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3000</t>
+          <t>CUST1386</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27004267</v>
+        <v>34383755</v>
       </c>
       <c r="E13" t="n">
-        <v>4963000</v>
+        <v>5532682</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9077</t>
+          <t>CUST7644</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24283685</v>
+        <v>28470616</v>
       </c>
       <c r="E14" t="n">
-        <v>4759423</v>
+        <v>4917041</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST8987</t>
+          <t>CUST7644</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37484084</v>
+        <v>33471698</v>
       </c>
       <c r="E15" t="n">
-        <v>7665354</v>
+        <v>7099423</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST5985</t>
+          <t>CUST2520</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27750106</v>
+        <v>36041401</v>
       </c>
       <c r="E16" t="n">
-        <v>4939540</v>
+        <v>5994694</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2305</t>
+          <t>CUST3785</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33616010</v>
+        <v>30726387</v>
       </c>
       <c r="E17" t="n">
-        <v>6903799</v>
+        <v>7391087</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST8368</t>
+          <t>CUST3957</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23333045</v>
+        <v>17190033</v>
       </c>
       <c r="E18" t="n">
-        <v>5257081</v>
+        <v>2669229</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1415,20 +1415,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST2305</t>
+          <t>CUST5239</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35854422</v>
+        <v>29561323</v>
       </c>
       <c r="E19" t="n">
-        <v>7154487</v>
+        <v>7246528</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST5687</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20684737</v>
+        <v>23273161</v>
       </c>
       <c r="E20" t="n">
-        <v>3797794</v>
+        <v>5592453</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST8921</t>
+          <t>CUST4003</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17881052</v>
+        <v>19663301</v>
       </c>
       <c r="E21" t="n">
-        <v>2855607</v>
+        <v>3774544</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST9215</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29010503</v>
+        <v>24505180</v>
       </c>
       <c r="E22" t="n">
-        <v>4912414</v>
+        <v>4382937</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST3320</t>
+          <t>CUST7644</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17053626</v>
+        <v>24209076</v>
       </c>
       <c r="E23" t="n">
-        <v>4024292</v>
+        <v>6036845</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST4910</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16459408</v>
+        <v>18703978</v>
       </c>
       <c r="E24" t="n">
-        <v>2493675</v>
+        <v>2992316</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST6133</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30717358</v>
+        <v>22341403</v>
       </c>
       <c r="E25" t="n">
-        <v>4889397</v>
+        <v>3534548</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7109</t>
+          <t>CUST6060</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21287544</v>
+        <v>33959935</v>
       </c>
       <c r="E26" t="n">
-        <v>4414182</v>
+        <v>6197515</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST2968</t>
+          <t>CUST9638</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25157923</v>
+        <v>33393163</v>
       </c>
       <c r="E27" t="n">
-        <v>5390581</v>
+        <v>5652214</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST8118</t>
+          <t>CUST3574</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36081640</v>
+        <v>20210143</v>
       </c>
       <c r="E28" t="n">
-        <v>8780653</v>
+        <v>3211620</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST8281</t>
+          <t>CUST3055</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38538554</v>
+        <v>26060334</v>
       </c>
       <c r="E29" t="n">
-        <v>7500372</v>
+        <v>4527092</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2009,20 +2009,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST9038</t>
+          <t>CUST5336</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25012287</v>
+        <v>23811319</v>
       </c>
       <c r="E30" t="n">
-        <v>3935264</v>
+        <v>5131449</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7932</t>
+          <t>CUST3785</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29019261</v>
+        <v>37112309</v>
       </c>
       <c r="E31" t="n">
-        <v>4486670</v>
+        <v>6112716</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6072</t>
+          <t>CUST4263</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34370263</v>
+        <v>30177383</v>
       </c>
       <c r="E32" t="n">
-        <v>6170118</v>
+        <v>5008300</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST7753</t>
+          <t>CUST8530</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>37584614</v>
+        <v>32890630</v>
       </c>
       <c r="E33" t="n">
-        <v>8262670</v>
+        <v>7220846</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-12-29</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST1513</t>
+          <t>CUST9774</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>33740231</v>
+        <v>39167237</v>
       </c>
       <c r="E34" t="n">
-        <v>5764691</v>
+        <v>8696840</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST5687</t>
+          <t>CUST1564</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>29368119</v>
+        <v>30530087</v>
       </c>
       <c r="E35" t="n">
-        <v>6184220</v>
+        <v>6791286</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8281</t>
+          <t>CUST8374</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>34616304</v>
+        <v>25161997</v>
       </c>
       <c r="E36" t="n">
-        <v>6300360</v>
+        <v>5000292</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST7109</t>
+          <t>CUST8664</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34304145</v>
+        <v>25933945</v>
       </c>
       <c r="E37" t="n">
-        <v>7936487</v>
+        <v>5350739</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2419,12 +2419,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2305</t>
+          <t>CUST2109</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>38993869</v>
+        <v>24843306</v>
       </c>
       <c r="E38" t="n">
-        <v>8598560</v>
+        <v>5840185</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2968</t>
+          <t>CUST6417</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24293769</v>
+        <v>26894222</v>
       </c>
       <c r="E39" t="n">
-        <v>5374886</v>
+        <v>4227000</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST1580</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>26980244</v>
+        <v>21215675</v>
       </c>
       <c r="E40" t="n">
-        <v>6626056</v>
+        <v>3197503</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST7753</t>
+          <t>CUST2109</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23004559</v>
+        <v>39258042</v>
       </c>
       <c r="E41" t="n">
-        <v>4842947</v>
+        <v>9069052</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST7026</t>
+          <t>CUST6417</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18699990</v>
+        <v>20244430</v>
       </c>
       <c r="E42" t="n">
-        <v>4200263</v>
+        <v>4177412</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST9077</t>
+          <t>CUST1564</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>18565951</v>
+        <v>35789322</v>
       </c>
       <c r="E43" t="n">
-        <v>2856213</v>
+        <v>7842678</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST1239</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>25802892</v>
+        <v>39641979</v>
       </c>
       <c r="E44" t="n">
-        <v>4785941</v>
+        <v>9306951</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4241</t>
+          <t>CUST8664</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32537990</v>
+        <v>34259365</v>
       </c>
       <c r="E45" t="n">
-        <v>5498007</v>
+        <v>5665321</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4484</t>
+          <t>CUST1789</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15478087</v>
+        <v>23397817</v>
       </c>
       <c r="E46" t="n">
-        <v>3796245</v>
+        <v>5479299</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST6171</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30132065</v>
+        <v>24401002</v>
       </c>
       <c r="E47" t="n">
-        <v>7265875</v>
+        <v>3940533</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST2241</t>
+          <t>CUST3347</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23720452</v>
+        <v>32599957</v>
       </c>
       <c r="E48" t="n">
-        <v>4399909</v>
+        <v>5087840</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4910</t>
+          <t>CUST4263</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27159114</v>
+        <v>19159222</v>
       </c>
       <c r="E49" t="n">
-        <v>4118267</v>
+        <v>3523627</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST1766</t>
+          <t>CUST8664</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25143861</v>
+        <v>30572796</v>
       </c>
       <c r="E50" t="n">
-        <v>4903286</v>
+        <v>5415337</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST9165</t>
+          <t>CUST6417</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>37885324</v>
+        <v>26811044</v>
       </c>
       <c r="E51" t="n">
-        <v>9187385</v>
+        <v>5119046</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3000</t>
+          <t>CUST9733</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21841335</v>
+        <v>25060163</v>
       </c>
       <c r="E52" t="n">
-        <v>3960515</v>
+        <v>6233705</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-12-29</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST8987</t>
+          <t>CUST3055</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>36148609</v>
+        <v>37871684</v>
       </c>
       <c r="E53" t="n">
-        <v>5773444</v>
+        <v>6343345</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST2630</t>
+          <t>CUST7692</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>32694545</v>
+        <v>24314781</v>
       </c>
       <c r="E54" t="n">
-        <v>7151685</v>
+        <v>5319063</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST2241</t>
+          <t>CUST1449</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>27445397</v>
+        <v>28565044</v>
       </c>
       <c r="E55" t="n">
-        <v>4239060</v>
+        <v>4321328</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST4910</t>
+          <t>CUST1449</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>34568427</v>
+        <v>28956315</v>
       </c>
       <c r="E56" t="n">
-        <v>6639877</v>
+        <v>5258059</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST1239</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15122854</v>
+        <v>26415343</v>
       </c>
       <c r="E57" t="n">
-        <v>2840865</v>
+        <v>4975831</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2171</t>
+          <t>CUST7757</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>24171436</v>
+        <v>34220854</v>
       </c>
       <c r="E58" t="n">
-        <v>5468433</v>
+        <v>8236021</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST8118</t>
+          <t>CUST2356</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>38744191</v>
+        <v>23229403</v>
       </c>
       <c r="E59" t="n">
-        <v>6102377</v>
+        <v>4123321</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>24522943</v>
+        <v>23456474</v>
       </c>
       <c r="E60" t="n">
-        <v>5586674</v>
+        <v>3667622</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST9165</t>
+          <t>CUST2645</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>26244728</v>
+        <v>34647600</v>
       </c>
       <c r="E61" t="n">
-        <v>5106481</v>
+        <v>8152749</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2494</t>
+          <t>CUST1562</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17803980</v>
+        <v>39800087</v>
       </c>
       <c r="E62" t="n">
-        <v>4063546</v>
+        <v>8181320</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1766</t>
+          <t>CUST9733</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32411099</v>
+        <v>21185290</v>
       </c>
       <c r="E63" t="n">
-        <v>6748638</v>
+        <v>4731893</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST8126</t>
+          <t>CUST6060</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>39916160</v>
+        <v>26398391</v>
       </c>
       <c r="E64" t="n">
-        <v>8775497</v>
+        <v>6109524</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7894</t>
+          <t>CUST4263</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>21365624</v>
+        <v>32729236</v>
       </c>
       <c r="E65" t="n">
-        <v>3545663</v>
+        <v>7247895</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST5985</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>33057332</v>
+        <v>22251235</v>
       </c>
       <c r="E66" t="n">
-        <v>8064230</v>
+        <v>5239067</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST6602</t>
+          <t>CUST6106</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>23143219</v>
+        <v>34473897</v>
       </c>
       <c r="E67" t="n">
-        <v>5089868</v>
+        <v>6048226</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4039,12 +4039,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST8921</t>
+          <t>CUST5752</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23470082</v>
+        <v>26095511</v>
       </c>
       <c r="E68" t="n">
-        <v>4560775</v>
+        <v>6491641</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST8368</t>
+          <t>CUST4263</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>15024339</v>
+        <v>28167466</v>
       </c>
       <c r="E69" t="n">
-        <v>2740901</v>
+        <v>4489958</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST9077</t>
+          <t>CUST3957</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>38705006</v>
+        <v>26279912</v>
       </c>
       <c r="E70" t="n">
-        <v>9620896</v>
+        <v>6136262</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST7695</t>
+          <t>CUST1562</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>23336684</v>
+        <v>24781836</v>
       </c>
       <c r="E71" t="n">
-        <v>5491145</v>
+        <v>5487741</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9038</t>
+          <t>CUST4003</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>37342347</v>
+        <v>28305137</v>
       </c>
       <c r="E72" t="n">
-        <v>5625187</v>
+        <v>5460280</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST9733</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>32808909</v>
+        <v>26534442</v>
       </c>
       <c r="E73" t="n">
-        <v>6825518</v>
+        <v>6496735</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST3917</t>
+          <t>CUST1449</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>36290570</v>
+        <v>32486829</v>
       </c>
       <c r="E74" t="n">
-        <v>8929443</v>
+        <v>6580520</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST5985</t>
+          <t>CUST2955</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22218419</v>
+        <v>31952717</v>
       </c>
       <c r="E75" t="n">
-        <v>4364586</v>
+        <v>7353270</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST9043</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>27756153</v>
+        <v>18966460</v>
       </c>
       <c r="E76" t="n">
-        <v>6587151</v>
+        <v>3209499</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST2968</t>
+          <t>CUST7223</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>39799198</v>
+        <v>32096232</v>
       </c>
       <c r="E77" t="n">
-        <v>7352292</v>
+        <v>5451724</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST8047</t>
+          <t>CUST1580</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30670936</v>
+        <v>35975565</v>
       </c>
       <c r="E78" t="n">
-        <v>4998456</v>
+        <v>8468057</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST6358</t>
+          <t>CUST6106</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>18520485</v>
+        <v>29315636</v>
       </c>
       <c r="E79" t="n">
-        <v>3845064</v>
+        <v>6390818</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9230</t>
+          <t>CUST7223</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>36660136</v>
+        <v>20438196</v>
       </c>
       <c r="E80" t="n">
-        <v>5606892</v>
+        <v>4347610</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST7026</t>
+          <t>CUST1239</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>33718451</v>
+        <v>38826543</v>
       </c>
       <c r="E81" t="n">
-        <v>7560491</v>
+        <v>6757190</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST7753</t>
+          <t>CUST7581</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>29908801</v>
+        <v>28657208</v>
       </c>
       <c r="E82" t="n">
-        <v>7029444</v>
+        <v>5803198</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST7894</t>
+          <t>CUST7223</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>34129960</v>
+        <v>28468913</v>
       </c>
       <c r="E83" t="n">
-        <v>7524073</v>
+        <v>5007751</v>
       </c>
       <c r="F83" t="n">
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST8374</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>18506081</v>
+        <v>21147871</v>
       </c>
       <c r="E84" t="n">
-        <v>4483685</v>
+        <v>3591165</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7026</t>
+          <t>CUST4221</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>36678580</v>
+        <v>39082296</v>
       </c>
       <c r="E85" t="n">
-        <v>7197938</v>
+        <v>7533974</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST6358</t>
+          <t>CUST5336</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>28952244</v>
+        <v>24397203</v>
       </c>
       <c r="E86" t="n">
-        <v>4918463</v>
+        <v>4003619</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST8921</t>
+          <t>CUST4263</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>31672136</v>
+        <v>26774233</v>
       </c>
       <c r="E87" t="n">
-        <v>6961801</v>
+        <v>4444495</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST2171</t>
+          <t>CUST7223</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>26997597</v>
+        <v>23631964</v>
       </c>
       <c r="E88" t="n">
-        <v>6325471</v>
+        <v>5156146</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST6602</t>
+          <t>CUST4221</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>28156111</v>
+        <v>30205285</v>
       </c>
       <c r="E89" t="n">
-        <v>6767251</v>
+        <v>4874888</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5227,12 +5227,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST8118</t>
+          <t>CUST7692</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24050658</v>
+        <v>29996311</v>
       </c>
       <c r="E90" t="n">
-        <v>4270220</v>
+        <v>7287061</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST9843</t>
+          <t>CUST5909</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>22209942</v>
+        <v>28525670</v>
       </c>
       <c r="E91" t="n">
-        <v>3681488</v>
+        <v>6271349</v>
       </c>
       <c r="F91" t="n">
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.90000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>7248960</v>
+        <v>11275317</v>
       </c>
       <c r="E2" t="n">
-        <v>1655083</v>
+        <v>3300239</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4800299</v>
+        <v>11613274</v>
       </c>
       <c r="E3" t="n">
-        <v>781321</v>
+        <v>1248375</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>14166452</v>
+        <v>16640851</v>
       </c>
       <c r="E4" t="n">
-        <v>2411945</v>
+        <v>2210243</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>15158069</v>
+        <v>8642889</v>
       </c>
       <c r="E5" t="n">
-        <v>2386708</v>
+        <v>2319136</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1840471</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>442908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>882128</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>224652</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>13522970</v>
+        <v>4093821</v>
       </c>
       <c r="E8" t="n">
-        <v>1590317</v>
+        <v>1052028</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>20872088</v>
+        <v>8928409</v>
       </c>
       <c r="E9" t="n">
-        <v>5157279</v>
+        <v>956377</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7175316</v>
+        <v>5427562</v>
       </c>
       <c r="E10" t="n">
-        <v>1573735</v>
+        <v>1561068</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2896900</v>
+        <v>5668776</v>
       </c>
       <c r="E11" t="n">
-        <v>852588</v>
+        <v>757469</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>14932584</v>
+        <v>8262940</v>
       </c>
       <c r="E12" t="n">
-        <v>2472071</v>
+        <v>2106459</v>
       </c>
     </row>
     <row r="13">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>6023136</v>
+        <v>4955418</v>
       </c>
       <c r="E15" t="n">
-        <v>720748</v>
+        <v>839766</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.5</v>
+        <v>76.3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3566964</v>
+        <v>9568619</v>
       </c>
       <c r="E16" t="n">
-        <v>821652</v>
+        <v>2227022</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>9778858</v>
+        <v>8052933</v>
       </c>
       <c r="E17" t="n">
-        <v>1022022</v>
+        <v>1823634</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.3</v>
+        <v>86</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>11658838</v>
+        <v>9954363</v>
       </c>
       <c r="E18" t="n">
-        <v>2525983</v>
+        <v>2493820</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>7775894</v>
+        <v>5341236</v>
       </c>
       <c r="E19" t="n">
-        <v>985870</v>
+        <v>1424701</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>10060390</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2752483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.5</v>
+        <v>82.7</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>5676306</v>
+        <v>10806276</v>
       </c>
       <c r="E22" t="n">
-        <v>1577194</v>
+        <v>1497204</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.5</v>
+        <v>84.7</v>
       </c>
       <c r="C23" t="n">
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>9500489</v>
+        <v>18716758</v>
       </c>
       <c r="E23" t="n">
-        <v>992979</v>
+        <v>2691601</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>4988756</v>
+        <v>3948626</v>
       </c>
       <c r="E24" t="n">
-        <v>1024829</v>
+        <v>1022814</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>17916311</v>
+        <v>4100346</v>
       </c>
       <c r="E25" t="n">
-        <v>2218069</v>
+        <v>1034655</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.3</v>
+        <v>88</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>13474770</v>
+        <v>17547001</v>
       </c>
       <c r="E26" t="n">
-        <v>3012359</v>
+        <v>3491188</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1881233</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>234488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3865582</v>
+        <v>8804888</v>
       </c>
       <c r="E29" t="n">
-        <v>824548</v>
+        <v>2532682</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>11182215</v>
+        <v>9927466</v>
       </c>
       <c r="E30" t="n">
-        <v>2795958</v>
+        <v>998410</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.3</v>
+        <v>78.2</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>15587848</v>
+        <v>5490698</v>
       </c>
       <c r="E31" t="n">
-        <v>2708701</v>
+        <v>1525271</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>4923768</v>
+        <v>4548787</v>
       </c>
       <c r="E32" t="n">
-        <v>1381269</v>
+        <v>700512</v>
       </c>
     </row>
   </sheetData>
